--- a/nodes_source_analyses/energy/energy_heat_well_geothermal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_heat_well_geothermal.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B424C4-AED7-0E42-80B3-4466073F71B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5ABED8-8ED6-AC44-82C3-20367EFDC2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
   <si>
     <t>Source</t>
   </si>
@@ -571,6 +571,9 @@
   <si>
     <t>euro/kW/year</t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -580,12 +583,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1128,524 +1138,525 @@
   </borders>
   <cellStyleXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="256">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2633,7 +2644,7 @@
   <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I10:I31"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -2658,28 +2669,28 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="149"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="149"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="152"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:11" ht="36" customHeight="1">
-      <c r="B4" s="152"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="154"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="155"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
@@ -3046,15 +3057,15 @@
         <v>3</v>
       </c>
       <c r="E25" s="44">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="33"/>
-      <c r="I25" s="31" t="s">
-        <v>49</v>
+      <c r="I25" s="156" t="s">
+        <v>152</v>
       </c>
       <c r="J25" s="95"/>
     </row>
@@ -4910,7 +4921,7 @@
       <c r="C60" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="155" t="s">
+      <c r="D60" s="146" t="s">
         <v>151</v>
       </c>
       <c r="E60" s="129">
@@ -5113,8 +5124,8 @@
       </c>
     </row>
     <row r="68" spans="3:18">
-      <c r="C68" s="155"/>
-      <c r="D68" s="155"/>
+      <c r="C68" s="146"/>
+      <c r="D68" s="146"/>
       <c r="G68" s="136" t="s">
         <v>131</v>
       </c>

--- a/nodes_source_analyses/energy/energy_heat_well_geothermal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_heat_well_geothermal.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5ABED8-8ED6-AC44-82C3-20367EFDC2E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B41D42-6358-B148-B438-DA58E5439FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21980" yWindow="520" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -45,7 +45,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="158">
   <si>
     <t>Source</t>
   </si>
@@ -574,14 +576,30 @@
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
+  <si>
+    <t>input.electricity</t>
+  </si>
+  <si>
+    <t>input.geothermal</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>PBL</t>
+  </si>
+  <si>
+    <t>https://refman.energytransitionmodel.com/publications</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -1397,7 +1415,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1629,6 +1647,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1656,7 +1675,9 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="256">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2011,6 +2032,50 @@
         <a:xfrm>
           <a:off x="4419600" y="6051376"/>
           <a:ext cx="8483600" cy="3143423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7401CDA-52F0-E741-A8DA-FC6157667AD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="14706600"/>
+          <a:ext cx="8128000" cy="2108200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2464,12 +2529,12 @@
       <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2641,25 +2706,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K32"/>
+  <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2669,28 +2734,28 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="152"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:11" ht="36" customHeight="1">
-      <c r="B4" s="153"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="155"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="156"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
@@ -2755,78 +2820,71 @@
     </row>
     <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="159">
+        <f>Notes!D73</f>
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="B11" s="20"/>
+      <c r="C11" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="159">
+        <f>Notes!D74</f>
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
+      <c r="B12" s="20"/>
+      <c r="C12" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E12" s="43">
         <v>1</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1">
-      <c r="B11" s="37"/>
-      <c r="C11" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="43">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="32"/>
-    </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1">
-      <c r="B12" s="37"/>
-      <c r="C12" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="44">
-        <v>0</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="95"/>
-      <c r="K12" s="32"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
-      <c r="C13" s="142" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="44">
-        <f>'Research data'!G7</f>
-        <v>6000</v>
+      <c r="C13" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="43">
+        <v>0</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
-      <c r="I13" s="145" t="s">
-        <v>134</v>
+      <c r="I13" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="J13" s="95"/>
       <c r="K13" s="32"/>
@@ -2834,148 +2892,145 @@
     <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="E14" s="44">
         <v>0</v>
       </c>
       <c r="F14" s="33"/>
-      <c r="G14" s="33" t="s">
-        <v>26</v>
-      </c>
+      <c r="G14" s="33"/>
       <c r="H14" s="33"/>
       <c r="I14" s="31" t="s">
         <v>49</v>
       </c>
       <c r="J14" s="95"/>
+      <c r="K14" s="32"/>
     </row>
     <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="142" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="44">
+        <f>'Research data'!G7</f>
+        <v>6000</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="145" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" s="95"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="2:11" ht="17" thickBot="1">
+      <c r="B16" s="37"/>
+      <c r="C16" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="44">
+        <v>0</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="I16" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="95"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1">
+      <c r="B17" s="37"/>
+      <c r="C17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E17" s="44">
         <f>'Research data'!G6</f>
         <v>14</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33" t="s">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="139" t="s">
+      <c r="H17" s="33"/>
+      <c r="I17" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="J15" s="95"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="37"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="95"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1">
-      <c r="B17" s="37"/>
-      <c r="C17" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
       <c r="J17" s="95"/>
     </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1">
+    <row r="18" spans="2:10">
       <c r="B18" s="37"/>
-      <c r="C18" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="44">
-        <f>'Research data'!G15</f>
-        <v>26726000</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="139" t="s">
-        <v>134</v>
-      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="95"/>
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="37"/>
-      <c r="C19" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="44">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="31" t="s">
-        <v>49</v>
-      </c>
+      <c r="C19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="95"/>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="44">
-        <v>0</v>
+        <f>'Research data'!G15</f>
+        <v>26726000</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H20" s="33"/>
-      <c r="I20" s="31" t="s">
-        <v>49</v>
+      <c r="I20" s="139" t="s">
+        <v>134</v>
       </c>
       <c r="J20" s="95"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E21" s="44">
         <v>0</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H21" s="33"/>
       <c r="I21" s="31" t="s">
@@ -2986,43 +3041,41 @@
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="89">
-        <f>'Research data'!G16</f>
-        <v>1414000</v>
+        <v>31</v>
+      </c>
+      <c r="E22" s="44">
+        <v>0</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="139" t="s">
-        <v>134</v>
+      <c r="I22" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="J22" s="95"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="43">
-        <f>'Research data'!G18</f>
-        <v>26.6</v>
+        <v>27</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H23" s="33"/>
-      <c r="I23" s="71" t="s">
+      <c r="I23" s="31" t="s">
         <v>49</v>
       </c>
       <c r="J23" s="95"/>
@@ -3030,163 +3083,207 @@
     <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="92">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="E24" s="89">
+        <f>'Research data'!G16</f>
+        <v>1414000</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H24" s="33"/>
-      <c r="I24" s="98" t="s">
-        <v>49</v>
+      <c r="I24" s="139" t="s">
+        <v>134</v>
       </c>
       <c r="J24" s="95"/>
     </row>
     <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="44">
-        <v>0.04</v>
+        <v>47</v>
+      </c>
+      <c r="E25" s="43">
+        <f>'Research data'!G18</f>
+        <v>26.6</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H25" s="33"/>
-      <c r="I25" s="156" t="s">
-        <v>152</v>
+      <c r="I25" s="71" t="s">
+        <v>49</v>
       </c>
       <c r="J25" s="95"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="37"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="93"/>
+      <c r="C26" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="92">
+        <v>0</v>
+      </c>
       <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="H26" s="33"/>
-      <c r="I26" s="32"/>
+      <c r="I26" s="98" t="s">
+        <v>49</v>
+      </c>
       <c r="J26" s="95"/>
     </row>
     <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="37"/>
-      <c r="C27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="90"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="C27" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="147" t="s">
+        <v>152</v>
+      </c>
       <c r="J27" s="95"/>
     </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1">
+    <row r="28" spans="2:10">
       <c r="B28" s="37"/>
-      <c r="C28" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="44">
-        <v>0</v>
-      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="G28" s="33"/>
       <c r="H28" s="33"/>
-      <c r="I28" s="31" t="s">
-        <v>49</v>
-      </c>
+      <c r="I28" s="32"/>
       <c r="J28" s="95"/>
     </row>
     <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="37"/>
-      <c r="C29" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="89">
-        <f>'Research data'!G11</f>
-        <v>2</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="127" t="s">
-        <v>92</v>
-      </c>
+      <c r="C29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="90"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="95"/>
     </row>
     <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="44">
-        <f>'Research data'!G12</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H30" s="33"/>
-      <c r="I30" s="134" t="s">
-        <v>113</v>
+      <c r="I30" s="31" t="s">
+        <v>49</v>
       </c>
       <c r="J30" s="95"/>
     </row>
     <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="89">
+        <f>'Research data'!G11</f>
+        <v>2</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="33"/>
+      <c r="I31" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="95"/>
+    </row>
+    <row r="32" spans="2:10" ht="17" thickBot="1">
+      <c r="B32" s="37"/>
+      <c r="C32" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="44">
+        <f>'Research data'!G12</f>
+        <v>30</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="134" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" s="95"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
+      <c r="B33" s="37"/>
+      <c r="C33" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D33" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E33" s="44">
         <v>0</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="126" t="s">
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="95"/>
-    </row>
-    <row r="32" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
+      <c r="J33" s="95"/>
+    </row>
+    <row r="34" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3208,21 +3305,21 @@
       <selection activeCell="M15" sqref="M15:M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="103" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="103" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="103" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="103" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="103" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="103" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" style="103" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="104" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="104" customWidth="1"/>
-    <col min="11" max="12" width="8.42578125" style="104" customWidth="1"/>
-    <col min="13" max="13" width="43.140625" style="104" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="103" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="103" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="103" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="103" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="103" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="103" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" style="103" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="104" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="104" customWidth="1"/>
+    <col min="11" max="12" width="8.5" style="104" customWidth="1"/>
+    <col min="13" max="13" width="43.1640625" style="104" customWidth="1"/>
     <col min="14" max="14" width="60" style="103" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="103"/>
+    <col min="15" max="16384" width="10.6640625" style="103"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
@@ -3627,22 +3724,22 @@
   </sheetPr>
   <dimension ref="B1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="34.42578125" style="46" customWidth="1"/>
-    <col min="11" max="11" width="60.42578125" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="45"/>
+    <col min="1" max="1" width="3.33203125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="34.5" style="46" customWidth="1"/>
+    <col min="11" max="11" width="60.5" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -3942,6 +4039,24 @@
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="50"/>
+      <c r="C27" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="45">
+        <v>2019</v>
+      </c>
+      <c r="H27" s="45">
+        <v>2020</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="50"/>
@@ -3966,19 +4081,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:R70"/>
+  <dimension ref="B1:R74"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:R73"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72:I83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="129" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="129" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" style="129" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="129" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="129"/>
+    <col min="1" max="1" width="5.33203125" style="129" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="129" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" style="129" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="129" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="129"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1"/>
@@ -5124,8 +5239,6 @@
       </c>
     </row>
     <row r="68" spans="3:18">
-      <c r="C68" s="146"/>
-      <c r="D68" s="146"/>
       <c r="G68" s="136" t="s">
         <v>131</v>
       </c>
@@ -5179,6 +5292,28 @@
         <v>133</v>
       </c>
     </row>
+    <row r="72" spans="3:18">
+      <c r="C72" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="3:18">
+      <c r="C73" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="146">
+        <v>4.3400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:18">
+      <c r="C74" s="157" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="129">
+        <f>1-D73</f>
+        <v>0.95660000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
